--- a/app/vendors/consolidated_report/templates/consolidated_report_revision-11.xlsx
+++ b/app/vendors/consolidated_report/templates/consolidated_report_revision-11.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\toolbox\development\app\vendors\consolidated_report\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="4725" windowWidth="19440" windowHeight="5400" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -22,7 +27,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Traveler Details'!$A$1:$R$93</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'Traveler Details'!$9:$9</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -33,7 +38,7 @@
     <author>Michael Clifford</author>
   </authors>
   <commentList>
-    <comment ref="C9" authorId="0">
+    <comment ref="C9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M9" authorId="1">
+    <comment ref="M9" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1354,6 +1359,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1443,6 +1451,13 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1460,6 +1475,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1716,6 +1736,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1760,11 +1786,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="110575616"/>
-        <c:axId val="110577152"/>
+        <c:axId val="451912320"/>
+        <c:axId val="451909056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110575616"/>
+        <c:axId val="451912320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1792,7 +1818,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110577152"/>
+        <c:crossAx val="451909056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1800,7 +1826,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110577152"/>
+        <c:axId val="451909056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1828,7 +1854,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="110575616"/>
+        <c:crossAx val="451912320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2073,12 +2099,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="110611456"/>
-        <c:axId val="110613248"/>
+        <c:axId val="195310912"/>
+        <c:axId val="121464048"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="110611456"/>
+        <c:axId val="195310912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2106,7 +2132,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110613248"/>
+        <c:crossAx val="121464048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2114,7 +2140,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110613248"/>
+        <c:axId val="121464048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2142,7 +2168,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="110611456"/>
+        <c:crossAx val="195310912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2388,12 +2414,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="110389504"/>
-        <c:axId val="110395392"/>
+        <c:axId val="480980864"/>
+        <c:axId val="480977600"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="110389504"/>
+        <c:axId val="480980864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2421,7 +2447,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110395392"/>
+        <c:crossAx val="480977600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2429,7 +2455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110395392"/>
+        <c:axId val="480977600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2457,7 +2483,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="110389504"/>
+        <c:crossAx val="480980864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2548,7 +2574,6 @@
       <c:rotX val="15"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -2611,6 +2636,13 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -2631,6 +2663,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2672,12 +2710,12 @@
         </c:dLbls>
         <c:gapWidth val="95"/>
         <c:shape val="box"/>
-        <c:axId val="110402560"/>
-        <c:axId val="110430848"/>
+        <c:axId val="480981408"/>
+        <c:axId val="480976512"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="110402560"/>
+        <c:axId val="480981408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2700,7 +2738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110430848"/>
+        <c:crossAx val="480976512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2708,7 +2746,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110430848"/>
+        <c:axId val="480976512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2719,7 +2757,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110402560"/>
+        <c:crossAx val="480981408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6428,10 +6466,10 @@
     <hyperlink ref="M111" location="'Activity Summary'!A1" display="Please see Activity Summary for Details"/>
     <hyperlink ref="M111:P111" location="'Traveler Details'!A1" display="Please see Traveler Details for Details"/>
   </hyperlinks>
-  <pageMargins left="0.31518518518518518" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="46" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageMargins left="0.31518518518518501" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="43" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C&amp;K003366Page &amp;P of &amp;N&amp;RLuxury Link Travel Group: Client Report  for May 2011</oddFooter>
+    <oddFooter>&amp;C&amp;K003366Page &amp;P of &amp;N&amp;RLuxury Link Travel Group: Client Report</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
